--- a/02_data/processed/expenditure on public order and safety IMF.xlsx
+++ b/02_data/processed/expenditure on public order and safety IMF.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://economicsandpeace-my.sharepoint.com/personal/kmenon_economicsandpeace_org/Documents/Documents/GPI 2024/gpi-economic-costing/Data/2024_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Institute for Economics and Peace\Global Peace Index\2022 GPI\Economic costing\GPI_2021_ECONOMIC_IMPACT\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{D264E1D1-F49A-4BA6-83A8-7EFA4F23C986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E4D90C-9315-4D95-A734-BF98F2BA181F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Expenditure by Functions of Go" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -338,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -380,27 +366,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -681,24 +664,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V17" sqref="V17"/>
+      <selection pane="bottomRight" activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="21" width="6" customWidth="1"/>
+    <col min="3" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -756,14 +739,8 @@
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="6">
-        <v>2021</v>
-      </c>
-      <c r="U1" s="6">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:19" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -811,10 +788,8 @@
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-    <row r="3" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -868,12 +843,8 @@
       <c r="S3" s="5">
         <v>2.0110020161967399</v>
       </c>
-      <c r="T3" s="5">
-        <v>1.8336423262758299</v>
-      </c>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -907,14 +878,8 @@
       <c r="S4" s="4">
         <v>2.4493562405392</v>
       </c>
-      <c r="T4" s="4">
-        <v>2.2921831475738301</v>
-      </c>
-      <c r="U4" s="4">
-        <v>2.3116457228311602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -972,14 +937,8 @@
       <c r="S5" s="5">
         <v>2.0181498380004799</v>
       </c>
-      <c r="T5" s="5">
-        <v>1.932107514548</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1.8334174519094899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
@@ -1037,14 +996,8 @@
       <c r="S6" s="4">
         <v>1.43017610927842</v>
       </c>
-      <c r="T6" s="4">
-        <v>1.39468869406698</v>
-      </c>
-      <c r="U6" s="4">
-        <v>1.3387384678307499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1092,14 +1045,8 @@
         <v>2.0982847908326301</v>
       </c>
       <c r="S7" s="5"/>
-      <c r="T7" s="5">
-        <v>2.5395847624914301</v>
-      </c>
-      <c r="U7" s="5">
-        <v>1.3387384678307499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -1157,14 +1104,8 @@
       <c r="S8" s="4">
         <v>2.3738905174958802</v>
       </c>
-      <c r="T8" s="4">
-        <v>2.1520325059354901</v>
-      </c>
-      <c r="U8" s="4">
-        <v>2.3137459495072501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -1222,14 +1163,8 @@
       <c r="S9" s="5">
         <v>1.8200395853511999</v>
       </c>
-      <c r="T9" s="5">
-        <v>1.7535152689832501</v>
-      </c>
-      <c r="U9" s="5">
-        <v>2.3137459495072501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1261,14 +1196,8 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="4">
-        <v>1.7535152689832501</v>
-      </c>
-      <c r="U10" s="4">
-        <v>2.3137459495072501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1326,14 +1255,8 @@
       <c r="S11" s="5">
         <v>2.76591513761826</v>
       </c>
-      <c r="T11" s="5">
-        <v>2.6929287495576801</v>
-      </c>
-      <c r="U11" s="5">
-        <v>2.3137459495072501</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -1383,14 +1306,8 @@
       <c r="S12" s="4">
         <v>1.8549552021515701</v>
       </c>
-      <c r="T12" s="4">
-        <v>1.7297054770885401</v>
-      </c>
-      <c r="U12" s="4">
-        <v>1.55860485674041</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1446,14 +1363,8 @@
         <v>2.0169880645254699</v>
       </c>
       <c r="S13" s="5"/>
-      <c r="T13" s="5">
-        <v>2.8384721069553001</v>
-      </c>
-      <c r="U13" s="5">
-        <v>1.55860485674041</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1511,14 +1422,8 @@
       <c r="S14" s="4">
         <v>6.3745799688217</v>
       </c>
-      <c r="T14" s="4">
-        <v>4.5962543289281603</v>
-      </c>
-      <c r="U14" s="4">
-        <v>6.3929252264073204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1574,14 +1479,8 @@
       <c r="S15" s="5">
         <v>1.3512690602725399</v>
       </c>
-      <c r="T15" s="5">
-        <v>1.2032975321816901</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1.19667946327807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
@@ -1607,14 +1506,8 @@
       <c r="S16" s="4">
         <v>2.6284796811208899</v>
       </c>
-      <c r="T16" s="4">
-        <v>1.2032975321816901</v>
-      </c>
-      <c r="U16" s="4">
-        <v>1.19667946327807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -1672,14 +1565,8 @@
       <c r="S17" s="5">
         <v>2.4927370557391901</v>
       </c>
-      <c r="T17" s="5">
-        <v>2.3595288785110902</v>
-      </c>
-      <c r="U17" s="5">
-        <v>1.19667946327807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1737,14 +1624,8 @@
       <c r="S18" s="4">
         <v>1.9222003099703899</v>
       </c>
-      <c r="T18" s="4">
-        <v>1.70698907943328</v>
-      </c>
-      <c r="U18" s="4">
-        <v>1.19667946327807</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1802,14 +1683,8 @@
       <c r="S19" s="5">
         <v>2.1377358957739601</v>
       </c>
-      <c r="T19" s="5">
-        <v>1.95522234865357</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1.19667946327807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -1867,14 +1742,8 @@
       <c r="S20" s="4">
         <v>0.99675432409797404</v>
       </c>
-      <c r="T20" s="4">
-        <v>0.94381529088196703</v>
-      </c>
-      <c r="U20" s="4">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -1922,14 +1791,8 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5">
-        <v>0.94381529088196703</v>
-      </c>
-      <c r="U21" s="5">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
@@ -1981,14 +1844,8 @@
         <v>3.0352326789684501</v>
       </c>
       <c r="S22" s="4"/>
-      <c r="T22" s="4">
-        <v>3.4071128340797001</v>
-      </c>
-      <c r="U22" s="4">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
@@ -2046,14 +1903,8 @@
       <c r="S23" s="5">
         <v>2.0153146022362201</v>
       </c>
-      <c r="T23" s="5">
-        <v>1.8422167944593599</v>
-      </c>
-      <c r="U23" s="5">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
@@ -2111,14 +1962,8 @@
       <c r="S24" s="4">
         <v>1.16771385506461</v>
       </c>
-      <c r="T24" s="4">
-        <v>1.15893511876295</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2176,14 +2021,8 @@
       <c r="S25" s="5">
         <v>1.7738377495809601</v>
       </c>
-      <c r="T25" s="5">
-        <v>1.70966294004738</v>
-      </c>
-      <c r="U25" s="5">
-        <v>0.87989120110925501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -2241,14 +2080,8 @@
       <c r="S26" s="4">
         <v>3.0188152964759798</v>
       </c>
-      <c r="T26" s="4">
-        <v>2.7296821248038499</v>
-      </c>
-      <c r="U26" s="4">
-        <v>2.61267079481431</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
@@ -2306,14 +2139,8 @@
       <c r="S27" s="5">
         <v>1.7156338714083801</v>
       </c>
-      <c r="T27" s="5">
-        <v>1.6910254461015399</v>
-      </c>
-      <c r="U27" s="5">
-        <v>1.6610047951795399</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
@@ -2371,14 +2198,8 @@
       <c r="S28" s="4">
         <v>2.36507266477718</v>
       </c>
-      <c r="T28" s="4">
-        <v>2.1984312646208899</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1.6610047951795399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
@@ -2416,14 +2237,8 @@
       <c r="S29" s="5">
         <v>1.8505146832955699</v>
       </c>
-      <c r="T29" s="5">
-        <v>1.87752227851012</v>
-      </c>
-      <c r="U29" s="5">
-        <v>1.8608054564254599</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -2481,14 +2296,8 @@
       <c r="S30" s="4">
         <v>2.1570805554226098</v>
       </c>
-      <c r="T30" s="4">
-        <v>1.83105652452542</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1.8608054564254599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -2546,14 +2355,8 @@
       <c r="S31" s="5">
         <v>1.59045179319445</v>
       </c>
-      <c r="T31" s="5">
-        <v>1.6595675104684</v>
-      </c>
-      <c r="U31" s="5">
-        <v>1.55310060874453</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -2603,14 +2406,8 @@
       <c r="S32" s="4">
         <v>1.1240391713459399</v>
       </c>
-      <c r="T32" s="4">
-        <v>1.0487544091071399</v>
-      </c>
-      <c r="U32" s="4">
-        <v>0.98165770964319399</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -2646,14 +2443,8 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5">
-        <v>1.0487544091071399</v>
-      </c>
-      <c r="U33" s="5">
-        <v>0.98165770964319399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -2711,14 +2502,8 @@
       <c r="S34" s="4">
         <v>0.93555886920071096</v>
       </c>
-      <c r="T34" s="4">
-        <v>0.81802036537885603</v>
-      </c>
-      <c r="U34" s="4">
-        <v>0.98165770964319399</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
@@ -2776,14 +2561,8 @@
       <c r="S35" s="5">
         <v>1.7224006159276299</v>
       </c>
-      <c r="T35" s="5">
-        <v>1.48138556919077</v>
-      </c>
-      <c r="U35" s="5">
-        <v>1.4435569621839599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
@@ -2841,14 +2620,8 @@
       <c r="S36" s="4">
         <v>2.0215004283737801</v>
       </c>
-      <c r="T36" s="4">
-        <v>1.8843459329319201</v>
-      </c>
-      <c r="U36" s="4">
-        <v>1.4435569621839599</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
@@ -2904,14 +2677,8 @@
       <c r="S37" s="5">
         <v>1.2881656096241201</v>
       </c>
-      <c r="T37" s="5">
-        <v>1.22708877691614</v>
-      </c>
-      <c r="U37" s="5">
-        <v>1.21989781543249</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
@@ -2959,14 +2726,8 @@
       <c r="S38" s="4">
         <v>0.93362043219370205</v>
       </c>
-      <c r="T38" s="4">
-        <v>0.83949938289078296</v>
-      </c>
-      <c r="U38" s="4">
-        <v>1.21989781543249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
@@ -2992,14 +2753,8 @@
       <c r="S39" s="5">
         <v>1.6414189500922001</v>
       </c>
-      <c r="T39" s="5">
-        <v>0.83949938289078296</v>
-      </c>
-      <c r="U39" s="5">
-        <v>1.21989781543249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -3043,14 +2798,8 @@
       <c r="S40" s="4">
         <v>4.6586870476835296</v>
       </c>
-      <c r="T40" s="4">
-        <v>6.2339563731557597</v>
-      </c>
-      <c r="U40" s="4">
-        <v>5.5566095773051298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
@@ -3078,14 +2827,8 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="5">
-        <v>6.2339563731557597</v>
-      </c>
-      <c r="U41" s="5">
-        <v>5.5566095773051298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
@@ -3119,14 +2862,8 @@
       <c r="S42" s="4">
         <v>2.9392330939932001</v>
       </c>
-      <c r="T42" s="4">
-        <v>2.6946943879037701</v>
-      </c>
-      <c r="U42" s="4">
-        <v>5.5566095773051298</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
@@ -3156,14 +2893,8 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="5">
-        <v>2.6946943879037701</v>
-      </c>
-      <c r="U43" s="5">
-        <v>5.5566095773051298</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -3221,14 +2952,8 @@
       <c r="S44" s="4">
         <v>2.28677612507314</v>
       </c>
-      <c r="T44" s="4">
-        <v>2.18255095815883</v>
-      </c>
-      <c r="U44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
@@ -3286,14 +3011,8 @@
       <c r="S45" s="5">
         <v>1.5397968922760601</v>
       </c>
-      <c r="T45" s="5">
-        <v>1.28235843012355</v>
-      </c>
-      <c r="U45" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
@@ -3351,14 +3070,8 @@
       <c r="S46" s="4">
         <v>1.2953993420950101</v>
       </c>
-      <c r="T46" s="4">
-        <v>1.2077903950890601</v>
-      </c>
-      <c r="U46" s="4">
-        <v>1.2144449173857499</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
@@ -3394,14 +3107,8 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="5">
-        <v>1.2077903950890601</v>
-      </c>
-      <c r="U47" s="5">
-        <v>1.2144449173857499</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
@@ -3459,14 +3166,8 @@
       <c r="S48" s="4">
         <v>1.4772277164016301</v>
       </c>
-      <c r="T48" s="4">
-        <v>1.47434485241675</v>
-      </c>
-      <c r="U48" s="4">
-        <v>1.2144449173857499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
@@ -3524,14 +3225,8 @@
       <c r="S49" s="5">
         <v>2.60646178277704</v>
       </c>
-      <c r="T49" s="5">
-        <v>2.2843708011442798</v>
-      </c>
-      <c r="U49" s="5">
-        <v>2.33427364203731</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -3589,14 +3284,8 @@
       <c r="S50" s="4">
         <v>2.3947795055924201</v>
       </c>
-      <c r="T50" s="4">
-        <v>2.1136515527320099</v>
-      </c>
-      <c r="U50" s="4">
-        <v>2.2988970011450802</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
@@ -3636,14 +3325,8 @@
       <c r="S51" s="5">
         <v>1.9017025371427101</v>
       </c>
-      <c r="T51" s="5">
-        <v>1.76160252001401</v>
-      </c>
-      <c r="U51" s="5">
-        <v>2.2988970011450802</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
@@ -3683,14 +3366,8 @@
         <v>0.56382341290068605</v>
       </c>
       <c r="S52" s="4"/>
-      <c r="T52" s="4">
-        <v>1.76160252001401</v>
-      </c>
-      <c r="U52" s="4">
-        <v>2.2988970011450802</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
@@ -3724,14 +3401,8 @@
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="5">
-        <v>1.76160252001401</v>
-      </c>
-      <c r="U53" s="5">
-        <v>2.2988970011450802</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
@@ -3757,14 +3428,8 @@
       <c r="S54" s="4">
         <v>1.45627625206816</v>
       </c>
-      <c r="T54" s="4">
-        <v>1.4562767745409499</v>
-      </c>
-      <c r="U54" s="4">
-        <v>2.2988970011450802</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
@@ -3822,14 +3487,8 @@
       <c r="S55" s="5">
         <v>1.98138970997194</v>
       </c>
-      <c r="T55" s="5">
-        <v>1.94386086628907</v>
-      </c>
-      <c r="U55" s="5">
-        <v>1.87835989605122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>72</v>
       </c>
@@ -3877,14 +3536,8 @@
       <c r="S56" s="4">
         <v>1.95102069967767</v>
       </c>
-      <c r="T56" s="4">
-        <v>1.9490096598595199</v>
-      </c>
-      <c r="U56" s="4">
-        <v>1.8368949115555799</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>73</v>
       </c>
@@ -3942,14 +3595,8 @@
       <c r="S57" s="5">
         <v>1.2970748070134299</v>
       </c>
-      <c r="T57" s="5">
-        <v>1.0783496425723</v>
-      </c>
-      <c r="U57" s="5">
-        <v>0.89192255930757203</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>74</v>
       </c>
@@ -4007,14 +3654,8 @@
       <c r="S58" s="4">
         <v>2.3464546256894199</v>
       </c>
-      <c r="T58" s="4">
-        <v>2.1686863701435102</v>
-      </c>
-      <c r="U58" s="4">
-        <v>0.89192255930757203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>75</v>
       </c>
@@ -4072,14 +3713,8 @@
       <c r="S59" s="5">
         <v>1.9066074059561899</v>
       </c>
-      <c r="T59" s="5">
-        <v>1.8021994857994099</v>
-      </c>
-      <c r="U59" s="5">
-        <v>0.89192255930757203</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>76</v>
       </c>
@@ -4137,14 +3772,8 @@
       <c r="S60" s="4">
         <v>2.5398352023137201</v>
       </c>
-      <c r="T60" s="4">
-        <v>2.2898387269555802</v>
-      </c>
-      <c r="U60" s="4">
-        <v>0.89192255930757203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>77</v>
       </c>
@@ -4200,14 +3829,8 @@
       <c r="S61" s="5">
         <v>2.3410539309948901</v>
       </c>
-      <c r="T61" s="5">
-        <v>2.2898387269555802</v>
-      </c>
-      <c r="U61" s="5">
-        <v>0.89192255930757203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>78</v>
       </c>
@@ -4237,14 +3860,8 @@
       <c r="S62" s="4">
         <v>1.12475207535943</v>
       </c>
-      <c r="T62" s="4">
-        <v>0.909986913687303</v>
-      </c>
-      <c r="U62" s="4">
-        <v>0.87536798985986297</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>79</v>
       </c>
@@ -4280,14 +3897,8 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="5">
-        <v>0.909986913687303</v>
-      </c>
-      <c r="U63" s="5">
-        <v>0.87536798985986297</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>80</v>
       </c>
@@ -4333,14 +3944,8 @@
       </c>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="4">
-        <v>0.909986913687303</v>
-      </c>
-      <c r="U64" s="4">
-        <v>0.87536798985986297</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>81</v>
       </c>
@@ -4398,14 +4003,8 @@
       <c r="S65" s="5">
         <v>1.22639990117607</v>
       </c>
-      <c r="T65" s="5">
-        <v>1.1427792012432501</v>
-      </c>
-      <c r="U65" s="5">
-        <v>1.02124527186752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>82</v>
       </c>
@@ -4463,14 +4062,8 @@
       <c r="S66" s="4">
         <v>2.5029665098945602</v>
       </c>
-      <c r="T66" s="4">
-        <v>2.2250870684207298</v>
-      </c>
-      <c r="U66" s="4">
-        <v>1.02124527186752</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>83</v>
       </c>
@@ -4528,14 +4121,8 @@
       <c r="S67" s="5">
         <v>1.7532674027025901</v>
       </c>
-      <c r="T67" s="5">
-        <v>1.74806231206531</v>
-      </c>
-      <c r="U67" s="5">
-        <v>1.02124527186752</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>84</v>
       </c>
@@ -4565,14 +4152,8 @@
         <v>1.5004886798589301</v>
       </c>
       <c r="S68" s="4"/>
-      <c r="T68" s="4">
-        <v>1.74806231206531</v>
-      </c>
-      <c r="U68" s="4">
-        <v>1.02124527186752</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>85</v>
       </c>
@@ -4628,14 +4209,8 @@
       <c r="S69" s="5">
         <v>3.5709641361228801</v>
       </c>
-      <c r="T69" s="5">
-        <v>3.17364459010183</v>
-      </c>
-      <c r="U69" s="5">
-        <v>3.08913824396689</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>86</v>
       </c>
@@ -4693,14 +4268,8 @@
       <c r="S70" s="4">
         <v>2.0844994598680202</v>
       </c>
-      <c r="T70" s="4">
-        <v>2.0048433677768802</v>
-      </c>
-      <c r="U70" s="4">
-        <v>1.9300686211959901</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>87</v>
       </c>
@@ -4758,14 +4327,8 @@
       <c r="S71" s="5">
         <v>1.39833281260065</v>
       </c>
-      <c r="T71" s="5">
-        <v>1.33287573010255</v>
-      </c>
-      <c r="U71" s="5">
-        <v>1.9300686211959901</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>88</v>
       </c>
@@ -4823,14 +4386,8 @@
       <c r="S72" s="4">
         <v>1.6131846220113</v>
       </c>
-      <c r="T72" s="4">
-        <v>1.5481231045919199</v>
-      </c>
-      <c r="U72" s="4">
-        <v>1.55751127102505</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>89</v>
       </c>
@@ -4870,14 +4427,8 @@
       <c r="S73" s="5">
         <v>1.33310666552716</v>
       </c>
-      <c r="T73" s="5">
-        <v>1270.9107605654201</v>
-      </c>
-      <c r="U73" s="5">
-        <v>1.1687533045</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>90</v>
       </c>
@@ -4903,14 +4454,8 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="4">
-        <v>1270.9107605654201</v>
-      </c>
-      <c r="U74" s="4">
-        <v>1.1687533045</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>91</v>
       </c>
@@ -4960,14 +4505,8 @@
       <c r="S75" s="5">
         <v>2.2417793496787302</v>
       </c>
-      <c r="T75" s="5">
-        <v>1270.9107605654201</v>
-      </c>
-      <c r="U75" s="5">
-        <v>1.1687533045</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>92</v>
       </c>
@@ -4993,14 +4532,8 @@
         <v>0.11535102274409301</v>
       </c>
       <c r="S76" s="4"/>
-      <c r="T76" s="4">
-        <v>1.7420956842012001</v>
-      </c>
-      <c r="U76" s="4">
-        <v>1.48049638933502</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>93</v>
       </c>
@@ -5058,14 +4591,8 @@
       <c r="S77" s="5">
         <v>3.8052188716046098</v>
       </c>
-      <c r="T77" s="5">
-        <v>3.22643854630416</v>
-      </c>
-      <c r="U77" s="5">
-        <v>9.2746306122449003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>94</v>
       </c>
@@ -5109,14 +4636,8 @@
       <c r="S78" s="4">
         <v>3.20344046219875</v>
       </c>
-      <c r="T78" s="4">
-        <v>3.22643854630416</v>
-      </c>
-      <c r="U78" s="4">
-        <v>9.2746306122449003</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>95</v>
       </c>
@@ -5174,14 +4695,8 @@
       <c r="S79" s="5">
         <v>2.0533238259331399</v>
       </c>
-      <c r="T79" s="5">
-        <v>2.0820651154104</v>
-      </c>
-      <c r="U79" s="5">
-        <v>9.2746306122449003</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>96</v>
       </c>
@@ -5235,14 +4750,8 @@
       </c>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="4">
-        <v>2.0820651154104</v>
-      </c>
-      <c r="U80" s="4">
-        <v>9.2746306122449003</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>97</v>
       </c>
@@ -5284,15 +4793,9 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="5">
-        <v>2.0820651154104</v>
-      </c>
-      <c r="U81" s="5">
-        <v>9.2746306122449003</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="1.18" right="0.79" top="0.79" bottom="0.79" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>